--- a/data/Excel Workbooks/Calvin/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/UnitedStatesDataWorkbook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="180">
   <si>
     <t>Year</t>
   </si>
@@ -1220,6 +1220,12 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>iQp</t>
+  </si>
+  <si>
+    <t>iXp</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1130">
+  <cellStyleXfs count="1132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3555,6 +3561,8 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3898,7 +3906,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3913,7 +3921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3926,7 +3934,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1130">
+  <cellStyles count="1132">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="2"/>
     <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="53"/>
@@ -4596,6 +4604,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="4"/>
     <cellStyle name="Good" xfId="17" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="330"/>
@@ -4810,6 +4819,7 @@
     <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="679" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="905" hidden="1"/>
     <cellStyle name="Hyperlink 11" xfId="681" hidden="1"/>
@@ -6458,11 +6468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101123032"/>
-        <c:axId val="-2101114936"/>
+        <c:axId val="2131208664"/>
+        <c:axId val="2131216760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101123032"/>
+        <c:axId val="2131208664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -6502,12 +6512,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101114936"/>
+        <c:crossAx val="2131216760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101114936"/>
+        <c:axId val="2131216760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -6555,7 +6565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101123032"/>
+        <c:crossAx val="2131208664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -7498,11 +7508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101915880"/>
-        <c:axId val="-2101907496"/>
+        <c:axId val="2127722936"/>
+        <c:axId val="2127714616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101915880"/>
+        <c:axId val="2127722936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -7532,13 +7542,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101907496"/>
+        <c:crossAx val="2127714616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101907496"/>
+        <c:axId val="2127714616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7576,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101915880"/>
+        <c:crossAx val="2127722936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8619,11 +8629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101856824"/>
-        <c:axId val="-2101848344"/>
+        <c:axId val="2127664808"/>
+        <c:axId val="2127656360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101856824"/>
+        <c:axId val="2127664808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -8658,13 +8668,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101848344"/>
+        <c:crossAx val="2127656360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101848344"/>
+        <c:axId val="2127656360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,7 +8707,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101856824"/>
+        <c:crossAx val="2127664808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9629,11 +9639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101780760"/>
-        <c:axId val="-2101777624"/>
+        <c:axId val="2127329448"/>
+        <c:axId val="2127332584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101780760"/>
+        <c:axId val="2127329448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9643,12 +9653,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101777624"/>
+        <c:crossAx val="2127332584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101777624"/>
+        <c:axId val="2127332584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9659,7 +9669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101780760"/>
+        <c:crossAx val="2127329448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12908,12 +12918,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K8:K9"/>
@@ -12926,6 +12930,12 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12942,7 +12952,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J33"/>
+      <selection activeCell="G1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12969,13 +12979,11 @@
       <c r="E1" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="43" t="str">
-        <f>'United States Workbook'!L7</f>
-        <v>iQ</v>
-      </c>
-      <c r="G1" s="43" t="str">
-        <f>'United States Workbook'!M7</f>
-        <v>iX</v>
+      <c r="F1" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="H1" s="43" t="str">
         <f>'United States Workbook'!N7</f>
@@ -15675,7 +15683,7 @@
       <c r="P30" s="147"/>
       <c r="Q30" s="147"/>
       <c r="R30" s="147"/>
-      <c r="S30" s="154"/>
+      <c r="S30" s="149"/>
       <c r="T30" s="151"/>
       <c r="U30" s="153"/>
       <c r="V30" s="147"/>
@@ -15686,7 +15694,7 @@
       <c r="AA30" s="147"/>
       <c r="AB30" s="147"/>
       <c r="AC30" s="147"/>
-      <c r="AD30" s="149"/>
+      <c r="AD30" s="154"/>
       <c r="AE30" s="151"/>
       <c r="AF30" s="153"/>
       <c r="AG30" s="147"/>
@@ -15697,7 +15705,7 @@
       <c r="AL30" s="147"/>
       <c r="AM30" s="147"/>
       <c r="AN30" s="147"/>
-      <c r="AO30" s="149"/>
+      <c r="AO30" s="154"/>
       <c r="AQ30" s="91"/>
     </row>
     <row r="31" spans="1:43">
@@ -21033,11 +21041,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
@@ -21054,26 +21077,11 @@
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -31228,11 +31236,11 @@
       </c>
       <c r="F1" s="101" t="str">
         <f>USData!F1</f>
-        <v>iQ</v>
+        <v>iQp</v>
       </c>
       <c r="G1" s="101" t="str">
         <f>USData!G1</f>
-        <v>iX</v>
+        <v>iXp</v>
       </c>
       <c r="H1" s="101" t="str">
         <f>USData!H1</f>
